--- a/output_means.xlsx
+++ b/output_means.xlsx
@@ -682,15 +682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CS6" sqref="CS6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" hidden="1" customWidth="1"/>
